--- a/observations/orbit_plans/mtp090/nomad_mtp090_plan.xlsx
+++ b/observations/orbit_plans/mtp090/nomad_mtp090_plan.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp090\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A9DF2E-03A2-4DD3-B532-16FD1D78A13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="589">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1786,8 +1792,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1824,13 +1830,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1868,7 +1882,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1902,6 +1916,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1936,9 +1951,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2111,14 +2127,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2173,13 +2191,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
@@ -2187,7 +2208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2201,7 +2222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2224,7 +2245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2238,7 +2259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2264,7 +2285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2278,7 +2299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2301,7 +2322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2324,7 +2345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2338,7 +2359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2361,7 +2382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2378,7 +2399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2401,7 +2422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2412,7 +2433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>47</v>
       </c>
@@ -2429,7 +2450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2452,7 +2473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2475,7 +2496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2489,7 +2510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2512,7 +2533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2526,7 +2547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2552,7 +2573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2566,7 +2587,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2589,7 +2610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2612,7 +2633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2629,7 +2650,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2652,7 +2673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2666,7 +2687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2689,7 +2710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2712,7 +2733,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2726,7 +2747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2752,7 +2773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2766,7 +2787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2786,7 +2807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2797,7 +2818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2820,7 +2841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2837,7 +2858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2860,7 +2881,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2874,7 +2895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2897,7 +2918,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2911,7 +2932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2934,7 +2955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2960,7 +2981,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2974,7 +2995,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2988,7 +3009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3011,7 +3032,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -3025,7 +3046,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>14</v>
       </c>
@@ -3039,7 +3060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3062,7 +3083,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3076,7 +3097,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3099,7 +3120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
@@ -3110,7 +3131,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -3124,7 +3145,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3147,7 +3168,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3161,7 +3182,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3184,7 +3205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -3198,7 +3219,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3224,7 +3245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3247,7 +3268,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3261,7 +3282,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3284,7 +3305,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3298,7 +3319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3321,7 +3342,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3344,7 +3365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3358,7 +3379,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3384,7 +3405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3398,7 +3419,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3421,7 +3442,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3435,7 +3456,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3458,7 +3479,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3481,7 +3502,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3509,7 +3530,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3535,7 +3556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -3549,7 +3570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3572,7 +3593,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3583,7 +3604,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3597,7 +3618,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3611,7 +3632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3634,7 +3655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3657,7 +3678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3674,7 +3695,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3697,7 +3718,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3711,7 +3732,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3734,7 +3755,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3754,7 +3775,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3765,7 +3786,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3779,7 +3800,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3793,7 +3814,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3816,7 +3837,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>7</v>
       </c>
@@ -3833,7 +3854,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3868,7 +3889,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3882,7 +3903,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3905,7 +3926,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3919,7 +3940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3942,7 +3963,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -3956,7 +3977,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3988,7 +4009,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14</v>
       </c>
@@ -4002,7 +4023,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -4019,7 +4040,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4051,7 +4072,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4083,7 +4104,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7</v>
       </c>
@@ -4100,7 +4121,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4132,7 +4153,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4146,7 +4167,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -4160,7 +4181,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4183,7 +4204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14</v>
       </c>
@@ -4197,7 +4218,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4223,7 +4244,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4255,7 +4276,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -4269,7 +4290,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4283,7 +4304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4315,7 +4336,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -4329,7 +4350,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4361,7 +4382,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4390,7 +4411,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>47</v>
       </c>
@@ -4407,7 +4428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14</v>
       </c>
@@ -4421,7 +4442,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4444,7 +4465,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4458,7 +4479,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4484,7 +4505,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4516,7 +4537,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14</v>
       </c>
@@ -4530,7 +4551,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14</v>
       </c>
@@ -4544,7 +4565,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4576,7 +4597,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4590,7 +4611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4622,7 +4643,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -4633,7 +4654,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>47</v>
       </c>
@@ -4650,7 +4671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4682,7 +4703,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4714,7 +4735,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -4728,7 +4749,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4760,7 +4781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4774,7 +4795,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>28</v>
       </c>
@@ -4800,7 +4821,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4814,7 +4835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4846,7 +4867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4878,7 +4899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4892,7 +4913,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4924,7 +4945,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4938,7 +4959,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4973,7 +4994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5005,7 +5026,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -5019,7 +5040,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5051,7 +5072,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -5065,7 +5086,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5097,7 +5118,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5129,7 +5150,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -5140,7 +5161,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14</v>
       </c>
@@ -5151,7 +5172,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5183,7 +5204,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -5197,7 +5218,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5229,7 +5250,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5243,7 +5264,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5275,7 +5296,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5298,7 +5319,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5315,7 +5336,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5347,7 +5368,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5361,7 +5382,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5393,7 +5414,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5404,7 +5425,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>47</v>
       </c>
@@ -5421,7 +5442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5453,7 +5474,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5485,7 +5506,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>14</v>
       </c>
@@ -5499,7 +5520,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5531,7 +5552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3</v>
       </c>
@@ -5548,7 +5569,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5580,7 +5601,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5603,7 +5624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>14</v>
       </c>
@@ -5617,7 +5638,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5640,7 +5661,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5651,7 +5672,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5662,7 +5683,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3</v>
       </c>
@@ -5679,7 +5700,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5711,7 +5732,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5743,7 +5764,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5757,7 +5778,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5777,7 +5798,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>47</v>
       </c>
@@ -5794,7 +5815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>14</v>
       </c>
@@ -5808,7 +5829,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5831,7 +5852,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5845,7 +5866,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5868,7 +5889,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5888,7 +5909,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5899,7 +5920,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14</v>
       </c>
@@ -5913,7 +5934,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5945,7 +5966,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3</v>
       </c>
@@ -5962,7 +5983,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5994,7 +6015,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>14</v>
       </c>
@@ -6008,7 +6029,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>14</v>
       </c>
@@ -6022,7 +6043,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6054,7 +6075,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6086,7 +6107,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14</v>
       </c>
@@ -6100,7 +6121,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6132,7 +6153,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>14</v>
       </c>
@@ -6146,7 +6167,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14</v>
       </c>
@@ -6160,7 +6181,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6192,7 +6213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6224,7 +6245,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>14</v>
       </c>
@@ -6238,7 +6259,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6270,7 +6291,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6284,7 +6305,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3</v>
       </c>
@@ -6301,7 +6322,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -6333,7 +6354,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6365,7 +6386,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14</v>
       </c>
@@ -6379,7 +6400,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -6411,7 +6432,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>14</v>
       </c>
@@ -6425,7 +6446,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6439,7 +6460,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6471,7 +6492,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3</v>
       </c>
@@ -6488,7 +6509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
@@ -6520,7 +6541,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6552,7 +6573,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6566,7 +6587,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>14</v>
       </c>
@@ -6580,7 +6601,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -6612,7 +6633,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3</v>
       </c>
@@ -6629,7 +6650,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6661,7 +6682,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6675,7 +6696,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6707,7 +6728,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6721,7 +6742,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6753,7 +6774,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>14</v>
       </c>
@@ -6764,7 +6785,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>14</v>
       </c>
@@ -6775,7 +6796,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -6807,7 +6828,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -6821,7 +6842,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6853,7 +6874,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6885,7 +6906,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>14</v>
       </c>
@@ -6899,7 +6920,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>14</v>
       </c>
@@ -6913,7 +6934,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6936,7 +6957,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6950,7 +6971,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6973,7 +6994,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -7005,7 +7026,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>14</v>
       </c>
@@ -7019,7 +7040,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3</v>
       </c>
@@ -7036,7 +7057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -7068,7 +7089,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14</v>
       </c>
@@ -7082,7 +7103,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -7114,7 +7135,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14</v>
       </c>
@@ -7128,7 +7149,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -7160,7 +7181,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3</v>
       </c>
@@ -7177,7 +7198,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -7200,7 +7221,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>14</v>
       </c>
@@ -7214,7 +7235,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -7246,7 +7267,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14</v>
       </c>
@@ -7260,7 +7281,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -7289,7 +7310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>47</v>
       </c>
@@ -7303,7 +7324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>14</v>
       </c>
@@ -7317,7 +7338,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7349,7 +7370,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
@@ -7381,7 +7402,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3</v>
       </c>
@@ -7398,7 +7419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -7427,7 +7448,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>47</v>
       </c>
@@ -7441,7 +7462,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>14</v>
       </c>
@@ -7455,7 +7476,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>14</v>
       </c>
@@ -7469,7 +7490,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7489,7 +7510,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7500,7 +7521,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
@@ -7523,7 +7544,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>14</v>
       </c>
@@ -7537,7 +7558,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -7569,7 +7590,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>14</v>
       </c>
@@ -7583,7 +7604,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7618,7 +7639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
@@ -7650,7 +7671,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>14</v>
       </c>
@@ -7664,7 +7685,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7696,7 +7717,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7710,7 +7731,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>14</v>
       </c>
@@ -7724,7 +7745,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7756,7 +7777,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7788,7 +7809,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -7811,7 +7832,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7843,7 +7864,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7875,7 +7896,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7907,7 +7928,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -7939,7 +7960,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>5</v>
       </c>
@@ -7965,7 +7986,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>5</v>
       </c>
@@ -7988,7 +8009,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>5</v>
       </c>
@@ -8011,7 +8032,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>5</v>
       </c>
@@ -8034,7 +8055,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>5</v>
       </c>
@@ -8057,7 +8078,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>14</v>
       </c>
@@ -8071,7 +8092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -8085,7 +8106,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>14</v>
       </c>
@@ -8099,7 +8120,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>5</v>
       </c>
@@ -8122,7 +8143,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>5</v>
       </c>
@@ -8145,7 +8166,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>5</v>
       </c>
@@ -8168,7 +8189,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>5</v>
       </c>
@@ -8191,7 +8212,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3</v>
       </c>
@@ -8208,7 +8229,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>5</v>
       </c>
@@ -8231,7 +8252,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>5</v>
       </c>
@@ -8254,7 +8275,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>14</v>
       </c>
@@ -8268,7 +8289,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>14</v>
       </c>
@@ -8282,7 +8303,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>14</v>
       </c>
@@ -8296,7 +8317,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>14</v>
       </c>
@@ -8310,7 +8331,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>14</v>
       </c>
@@ -8324,7 +8345,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14</v>
       </c>
@@ -8338,7 +8359,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3</v>
       </c>
@@ -8355,7 +8376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8369,7 +8390,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>14</v>
       </c>
@@ -8383,7 +8404,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>14</v>
       </c>
@@ -8397,7 +8418,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8411,7 +8432,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>14</v>
       </c>
@@ -8425,7 +8446,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>14</v>
       </c>
@@ -8439,7 +8460,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8453,7 +8474,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>14</v>
       </c>
@@ -8467,7 +8488,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>14</v>
       </c>
@@ -8481,7 +8502,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>14</v>
       </c>
@@ -8495,7 +8516,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>14</v>
       </c>
@@ -8509,7 +8530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8523,7 +8544,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>14</v>
       </c>
@@ -8534,7 +8555,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>14</v>
       </c>
@@ -8545,7 +8566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8559,7 +8580,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8573,7 +8594,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>14</v>
       </c>
@@ -8587,7 +8608,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>14</v>
       </c>
@@ -8601,7 +8622,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>14</v>
       </c>
@@ -8612,7 +8633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>47</v>
       </c>
@@ -8626,7 +8647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -8640,7 +8661,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>14</v>
       </c>
@@ -8654,7 +8675,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>14</v>
       </c>
@@ -8668,7 +8689,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
       </c>
@@ -8682,7 +8703,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8696,7 +8717,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>14</v>
       </c>
@@ -8710,7 +8731,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3</v>
       </c>
@@ -8727,7 +8748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>14</v>
       </c>
@@ -8741,7 +8762,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>14</v>
       </c>
@@ -8755,7 +8776,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>14</v>
       </c>
@@ -8769,7 +8790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>14</v>
       </c>
@@ -8780,7 +8801,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>47</v>
       </c>
@@ -8794,7 +8815,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>14</v>
       </c>
@@ -8808,7 +8829,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>14</v>
       </c>
@@ -8822,7 +8843,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>14</v>
       </c>
@@ -8836,7 +8857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>14</v>
       </c>
@@ -8850,7 +8871,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>14</v>
       </c>
@@ -8861,7 +8882,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>47</v>
       </c>
@@ -8878,7 +8899,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>14</v>
       </c>
@@ -8892,7 +8913,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -8906,7 +8927,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>14</v>
       </c>
@@ -8920,7 +8941,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>14</v>
       </c>
@@ -8934,7 +8955,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>3</v>
       </c>
@@ -8951,7 +8972,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>14</v>
       </c>
@@ -8965,7 +8986,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>14</v>
       </c>
